--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Happy Birthday !</t>
+  </si>
+  <si>
+    <t>2020, 2021, 2021, 2021, 2021</t>
   </si>
 </sst>
 </file>
@@ -459,11 +462,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>2020</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>43848</v>
+        <v>43851</v>
       </c>
     </row>
     <row r="3" spans="1:6">
